--- a/summary_stat_folder/figure5B_averages.xlsx
+++ b/summary_stat_folder/figure5B_averages.xlsx
@@ -20,10 +20,10 @@
     <t xml:space="preserve">panel</t>
   </si>
   <si>
-    <t xml:space="preserve">means</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sds</t>
+    <t xml:space="preserve">mean (n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd (n)</t>
   </si>
   <si>
     <t xml:space="preserve">Lysis zone</t>

--- a/summary_stat_folder/figure5B_averages.xlsx
+++ b/summary_stat_folder/figure5B_averages.xlsx
@@ -32,10 +32,10 @@
     <t xml:space="preserve">SNIPR</t>
   </si>
   <si>
-    <t xml:space="preserve">153.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5771644662754</t>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8700576850888</t>
   </si>
   <si>
     <t xml:space="preserve">Negative</t>
@@ -50,10 +50,10 @@
     <t xml:space="preserve">Plaques</t>
   </si>
   <si>
-    <t xml:space="preserve">264.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9913780286484</t>
+    <t xml:space="preserve">258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2842712474619</t>
   </si>
   <si>
     <t xml:space="preserve">JMI</t>
